--- a/biology/Botanique/Athrotaxis_selaginoides/Athrotaxis_selaginoides.xlsx
+++ b/biology/Botanique/Athrotaxis_selaginoides/Athrotaxis_selaginoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athrotaxis selaginoides est une espèce de conifères de la famille des Cupressacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante vit en Tasmanie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit en Tasmanie.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce a pour synonymes :
-Athrotaxis alpina Van Houtte ex Gordon[2]
-Athrotaxis gunneana Hook. ex Carrière[2]
-Athrotaxis imbricata Carrière[2]
-Athrotaxis selaginoides var. pyramidata Mouill.[2]
-Cunninghamia selaginoides Zucc.[2]</t>
+Athrotaxis alpina Van Houtte ex Gordon
+Athrotaxis gunneana Hook. ex Carrière
+Athrotaxis imbricata Carrière
+Athrotaxis selaginoides var. pyramidata Mouill.
+Cunninghamia selaginoides Zucc.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 août 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 août 2018) :
 variété Athrotaxis selaginoides var. pyramidata Mouill.</t>
         </is>
       </c>
